--- a/Homework 1/box_plots.xlsx
+++ b/Homework 1/box_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Zheng\OneDrive\Desktop\CSE-310\Homework 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8724F98-B00D-4278-A49A-8D77E1FDC5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35053791-698E-42AA-A79B-1973679C6101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$101</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$2:$D$101</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$101</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$101</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,19 +63,19 @@
     <t>Chaturbate.com</t>
   </si>
   <si>
-    <t>Yahoo.co.jp</t>
+    <t>Weibo.com</t>
   </si>
   <si>
-    <t>Bongacams.com</t>
+    <t>Zhihu.com</t>
   </si>
   <si>
-    <t>Amazon.in</t>
+    <t>Qq.com</t>
   </si>
   <si>
-    <t>Google.com.hk</t>
+    <t>Taobao.com</t>
   </si>
   <si>
-    <t>Weibo.com</t>
+    <t>Baidu.com</t>
   </si>
 </sst>
 </file>
@@ -158,26 +151,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -215,7 +208,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8921B894-A5BB-4F65-A77A-8E5B62ACCCF3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>8.8.8.8</cx:v>
             </cx:txData>
           </cx:tx>
@@ -228,7 +221,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DA9BDEF5-3DE0-43A9-B6CF-A76601E3D02D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Local</cx:v>
             </cx:txData>
           </cx:tx>
@@ -241,7 +234,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{28AF5D8E-8463-4977-82D2-44CAE0013324}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>MyDig</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1227,7 +1220,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1808,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>222</v>
@@ -1829,7 +1822,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1">
         <v>13</v>
@@ -1843,7 +1836,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>15</v>
@@ -1857,7 +1850,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
         <v>237</v>
@@ -1871,7 +1864,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1">
         <v>15</v>
@@ -1885,7 +1878,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>231</v>
@@ -1899,7 +1892,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
         <v>17</v>
@@ -1913,7 +1906,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>16</v>
@@ -1927,7 +1920,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>223</v>
@@ -1941,7 +1934,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
         <v>18</v>
@@ -2095,7 +2088,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2">
         <v>18</v>
@@ -2109,7 +2102,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
         <v>167</v>
@@ -2123,7 +2116,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1">
         <v>16</v>
@@ -2137,7 +2130,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>29</v>
@@ -2151,7 +2144,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="1">
         <v>21</v>
@@ -2165,7 +2158,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1">
         <v>31</v>
@@ -2179,7 +2172,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1">
         <v>31</v>
@@ -2193,7 +2186,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" s="1">
         <v>28</v>
@@ -2207,7 +2200,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1">
         <v>28</v>
@@ -2221,7 +2214,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
         <v>20</v>
@@ -2235,7 +2228,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2">
         <v>18</v>
@@ -2249,7 +2242,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1">
         <v>15</v>
@@ -2263,7 +2256,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1">
         <v>26</v>
@@ -2277,7 +2270,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1">
         <v>19</v>
@@ -2291,7 +2284,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1">
         <v>16</v>
@@ -2305,7 +2298,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1">
         <v>19</v>
@@ -2319,7 +2312,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1">
         <v>16</v>
@@ -2333,7 +2326,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" s="1">
         <v>14</v>
@@ -2347,7 +2340,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1">
         <v>23</v>
@@ -2361,7 +2354,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1">
         <v>22</v>
@@ -2375,7 +2368,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2">
         <v>22</v>
@@ -2389,7 +2382,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1">
         <v>24</v>
@@ -2403,7 +2396,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1">
         <v>21</v>
@@ -2417,7 +2410,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B85" s="1">
         <v>27</v>
@@ -2431,7 +2424,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1">
         <v>37</v>
@@ -2445,7 +2438,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1">
         <v>22</v>
@@ -2459,7 +2452,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1">
         <v>26</v>
@@ -2473,7 +2466,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1">
         <v>26</v>
@@ -2487,7 +2480,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1">
         <v>34</v>
@@ -2501,7 +2494,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1">
         <v>16</v>
@@ -2515,7 +2508,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" s="2">
         <v>23</v>
@@ -2529,7 +2522,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1">
         <v>21</v>
@@ -2543,7 +2536,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1">
         <v>33</v>
@@ -2557,7 +2550,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1">
         <v>27</v>
@@ -2571,7 +2564,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="1">
         <v>20</v>
@@ -2585,7 +2578,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1">
         <v>26</v>
@@ -2599,7 +2592,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" s="1">
         <v>23</v>
@@ -2613,7 +2606,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" s="1">
         <v>23</v>
@@ -2627,7 +2620,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1">
         <v>22</v>
@@ -2641,7 +2634,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="1">
         <v>25</v>
